--- a/src/test/resources/ImportFile/AllProduct.xlsx
+++ b/src/test/resources/ImportFile/AllProduct.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever\src\test\resources\ImportFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FCC018-A747-4E8A-9579-24441EF1BD84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B474D96-4DD2-45A4-AF40-4E5AE61F90E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -309,9 +309,6 @@
     <t>Red</t>
   </si>
   <si>
-    <t>RW02774777-BL</t>
-  </si>
-  <si>
     <t>xyz</t>
   </si>
   <si>
@@ -381,9 +378,6 @@
     <t>Green</t>
   </si>
   <si>
-    <t>RW02789-GN</t>
-  </si>
-  <si>
     <t>abc</t>
   </si>
   <si>
@@ -411,16 +405,22 @@
     <t>https://res.cloudinary.com/dzhcngops/image/upload/v1757496246/suuniftnlppxp81ptzea.webp</t>
   </si>
   <si>
-    <t>Qa test Auto1</t>
-  </si>
-  <si>
-    <t>Qa test Auto2</t>
-  </si>
-  <si>
-    <t>RW052778879653204451</t>
-  </si>
-  <si>
-    <t>Qa Test_002</t>
+    <t>Automation Test_00234</t>
+  </si>
+  <si>
+    <t>RW027744777-BL</t>
+  </si>
+  <si>
+    <t>RW027489-GN</t>
+  </si>
+  <si>
+    <t>RW052523654653</t>
+  </si>
+  <si>
+    <t>Automation hugytfd5rtfgyuhij</t>
+  </si>
+  <si>
+    <t>Automation mknbhugyfguhij</t>
   </si>
 </sst>
 </file>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN921"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>72</v>
@@ -1243,7 +1243,7 @@
         <v>79</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O2" s="4">
         <v>55488871001</v>
@@ -1298,10 +1298,10 @@
         <v>91</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI2" s="3" t="s">
         <v>92</v>
@@ -1310,7 +1310,7 @@
         <v>93</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="AL2" s="3" t="s">
         <v>15</v>
@@ -1346,73 +1346,73 @@
         <v>24</v>
       </c>
       <c r="AW2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AY2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BB2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BC2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BD2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BE2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BF2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="BG2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="BG2" s="10" t="s">
+      <c r="BH2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="BH2" s="9" t="s">
+      <c r="BI2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="BI2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="BK2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="BK2" s="11" t="s">
+      <c r="BL2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="BL2" s="3" t="s">
+      <c r="BM2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BM2" s="3" t="s">
+      <c r="BN2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="BN2" s="11" t="s">
+      <c r="BO2" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="BP2" s="3" t="s">
         <v>76</v>
       </c>
       <c r="BQ2" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BR2" s="3">
         <v>2</v>
       </c>
       <c r="BS2" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BT2" s="3">
         <v>10</v>
@@ -1461,13 +1461,13 @@
       <c r="BN3" s="8"/>
       <c r="BO3" s="8"/>
       <c r="BQ3" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BR3" s="8">
         <v>22</v>
       </c>
       <c r="BS3" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BT3" s="8">
         <v>32</v>
@@ -1487,13 +1487,13 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="BQ4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BR4">
         <v>20</v>
       </c>
       <c r="BS4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BT4">
         <v>20</v>
@@ -1513,13 +1513,13 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="BQ5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BR5">
         <v>10</v>
       </c>
       <c r="BS5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BT5">
         <v>10</v>
@@ -1545,19 +1545,19 @@
         <v>45394</v>
       </c>
       <c r="AG6" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AH6" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AI6" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ6" s="7" t="s">
         <v>92</v>
       </c>
       <c r="AK6" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="AL6" s="7" t="s">
         <v>15</v>
@@ -1593,7 +1593,7 @@
         <v>24</v>
       </c>
       <c r="AW6" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
@@ -1602,49 +1602,49 @@
       <c r="BB6" s="7"/>
       <c r="BC6" s="7"/>
       <c r="BD6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="BE6" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="BF6" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="BE6" s="15" t="s">
+      <c r="BG6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH6" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ6" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="BF6" s="7" t="s">
+      <c r="BK6" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="BG6" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="BH6" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI6" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="BJ6" s="7" t="s">
+      <c r="BL6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="BK6" s="11" t="s">
+      <c r="BM6" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="BL6" s="7" t="s">
+      <c r="BN6" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="BM6" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="BN6" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="BP6" s="7" t="s">
         <v>76</v>
       </c>
       <c r="BQ6" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BR6" s="7">
         <v>10</v>
       </c>
       <c r="BS6" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BT6" s="7">
         <v>10</v>
@@ -1700,13 +1700,13 @@
       <c r="BM7" s="16"/>
       <c r="BP7" s="7"/>
       <c r="BQ7" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BR7" s="16">
         <v>10</v>
       </c>
       <c r="BS7" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BT7" s="16">
         <v>10</v>
@@ -1762,13 +1762,13 @@
       <c r="BM8" s="16"/>
       <c r="BP8" s="7"/>
       <c r="BQ8" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BR8" s="16">
         <v>10</v>
       </c>
       <c r="BS8" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BT8" s="16">
         <v>10</v>
